--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject2.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject2.xlsx
@@ -56,74 +56,74 @@
   <dimension ref="A1:BP68"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.16796875" customWidth="true"/>
-    <col min="2" max="2" width="2.16796875" customWidth="true"/>
-    <col min="3" max="3" width="2.16796875" customWidth="true"/>
-    <col min="4" max="4" width="2.16796875" customWidth="true"/>
-    <col min="5" max="5" width="2.16796875" customWidth="true"/>
-    <col min="6" max="6" width="2.16796875" customWidth="true"/>
-    <col min="7" max="7" width="2.16796875" customWidth="true"/>
-    <col min="8" max="8" width="2.16796875" customWidth="true"/>
-    <col min="9" max="9" width="2.16796875" customWidth="true"/>
-    <col min="10" max="10" width="2.16796875" customWidth="true"/>
-    <col min="11" max="11" width="2.16796875" customWidth="true"/>
-    <col min="12" max="12" width="2.16796875" customWidth="true"/>
-    <col min="13" max="13" width="2.16796875" customWidth="true"/>
-    <col min="14" max="14" width="2.16796875" customWidth="true"/>
-    <col min="15" max="15" width="2.16796875" customWidth="true"/>
-    <col min="16" max="16" width="2.16796875" customWidth="true"/>
-    <col min="17" max="17" width="2.16796875" customWidth="true"/>
-    <col min="18" max="18" width="2.16796875" customWidth="true"/>
-    <col min="19" max="19" width="2.16796875" customWidth="true"/>
-    <col min="20" max="20" width="2.16796875" customWidth="true"/>
-    <col min="21" max="21" width="2.16796875" customWidth="true"/>
-    <col min="22" max="22" width="2.16796875" customWidth="true"/>
-    <col min="23" max="23" width="2.16796875" customWidth="true"/>
-    <col min="24" max="24" width="2.16796875" customWidth="true"/>
-    <col min="25" max="25" width="2.16796875" customWidth="true"/>
-    <col min="26" max="26" width="2.16796875" customWidth="true"/>
-    <col min="27" max="27" width="2.16796875" customWidth="true"/>
-    <col min="28" max="28" width="2.16796875" customWidth="true"/>
-    <col min="29" max="29" width="2.16796875" customWidth="true"/>
-    <col min="30" max="30" width="2.16796875" customWidth="true"/>
-    <col min="31" max="31" width="2.16796875" customWidth="true"/>
-    <col min="32" max="32" width="2.16796875" customWidth="true"/>
-    <col min="33" max="33" width="2.16796875" customWidth="true"/>
-    <col min="34" max="34" width="2.16796875" customWidth="true"/>
-    <col min="35" max="35" width="2.16796875" customWidth="true"/>
-    <col min="36" max="36" width="2.16796875" customWidth="true"/>
-    <col min="37" max="37" width="2.16796875" customWidth="true"/>
-    <col min="38" max="38" width="2.16796875" customWidth="true"/>
-    <col min="39" max="39" width="2.16796875" customWidth="true"/>
-    <col min="40" max="40" width="2.16796875" customWidth="true"/>
-    <col min="41" max="41" width="2.16796875" customWidth="true"/>
-    <col min="42" max="42" width="2.16796875" customWidth="true"/>
-    <col min="43" max="43" width="2.16796875" customWidth="true"/>
-    <col min="44" max="44" width="2.16796875" customWidth="true"/>
-    <col min="45" max="45" width="2.16796875" customWidth="true"/>
-    <col min="46" max="46" width="2.16796875" customWidth="true"/>
-    <col min="47" max="47" width="2.16796875" customWidth="true"/>
-    <col min="48" max="48" width="2.16796875" customWidth="true"/>
-    <col min="49" max="49" width="2.16796875" customWidth="true"/>
-    <col min="50" max="50" width="2.16796875" customWidth="true"/>
-    <col min="51" max="51" width="2.16796875" customWidth="true"/>
-    <col min="52" max="52" width="2.16796875" customWidth="true"/>
-    <col min="53" max="53" width="2.16796875" customWidth="true"/>
-    <col min="54" max="54" width="2.16796875" customWidth="true"/>
-    <col min="55" max="55" width="2.16796875" customWidth="true"/>
-    <col min="56" max="56" width="2.16796875" customWidth="true"/>
-    <col min="57" max="57" width="2.16796875" customWidth="true"/>
-    <col min="58" max="58" width="2.16796875" customWidth="true"/>
-    <col min="59" max="59" width="2.16796875" customWidth="true"/>
-    <col min="60" max="60" width="2.16796875" customWidth="true"/>
-    <col min="61" max="61" width="2.16796875" customWidth="true"/>
-    <col min="62" max="62" width="2.16796875" customWidth="true"/>
-    <col min="63" max="63" width="2.16796875" customWidth="true"/>
-    <col min="64" max="64" width="2.16796875" customWidth="true"/>
-    <col min="65" max="65" width="2.16796875" customWidth="true"/>
-    <col min="66" max="66" width="2.16796875" customWidth="true"/>
-    <col min="67" max="67" width="2.16796875" customWidth="true"/>
-    <col min="68" max="68" width="2.16796875" customWidth="true"/>
+    <col min="1" max="1" width="12.7109375" customWidth="true"/>
+    <col min="2" max="2" width="12.7109375" customWidth="true"/>
+    <col min="3" max="3" width="12.7109375" customWidth="true"/>
+    <col min="4" max="4" width="12.7109375" customWidth="true"/>
+    <col min="5" max="5" width="12.7109375" customWidth="true"/>
+    <col min="6" max="6" width="12.7109375" customWidth="true"/>
+    <col min="7" max="7" width="12.7109375" customWidth="true"/>
+    <col min="8" max="8" width="12.7109375" customWidth="true"/>
+    <col min="9" max="9" width="12.7109375" customWidth="true"/>
+    <col min="10" max="10" width="12.7109375" customWidth="true"/>
+    <col min="11" max="11" width="12.7109375" customWidth="true"/>
+    <col min="12" max="12" width="12.7109375" customWidth="true"/>
+    <col min="13" max="13" width="12.7109375" customWidth="true"/>
+    <col min="14" max="14" width="12.7109375" customWidth="true"/>
+    <col min="15" max="15" width="12.7109375" customWidth="true"/>
+    <col min="16" max="16" width="12.7109375" customWidth="true"/>
+    <col min="17" max="17" width="12.7109375" customWidth="true"/>
+    <col min="18" max="18" width="12.7109375" customWidth="true"/>
+    <col min="19" max="19" width="12.7109375" customWidth="true"/>
+    <col min="20" max="20" width="12.7109375" customWidth="true"/>
+    <col min="21" max="21" width="12.7109375" customWidth="true"/>
+    <col min="22" max="22" width="12.7109375" customWidth="true"/>
+    <col min="23" max="23" width="12.7109375" customWidth="true"/>
+    <col min="24" max="24" width="12.7109375" customWidth="true"/>
+    <col min="25" max="25" width="12.7109375" customWidth="true"/>
+    <col min="26" max="26" width="12.7109375" customWidth="true"/>
+    <col min="27" max="27" width="12.7109375" customWidth="true"/>
+    <col min="28" max="28" width="12.7109375" customWidth="true"/>
+    <col min="29" max="29" width="12.7109375" customWidth="true"/>
+    <col min="30" max="30" width="12.7109375" customWidth="true"/>
+    <col min="31" max="31" width="12.7109375" customWidth="true"/>
+    <col min="32" max="32" width="12.7109375" customWidth="true"/>
+    <col min="33" max="33" width="12.7109375" customWidth="true"/>
+    <col min="34" max="34" width="12.7109375" customWidth="true"/>
+    <col min="35" max="35" width="12.7109375" customWidth="true"/>
+    <col min="36" max="36" width="12.7109375" customWidth="true"/>
+    <col min="37" max="37" width="12.7109375" customWidth="true"/>
+    <col min="38" max="38" width="12.7109375" customWidth="true"/>
+    <col min="39" max="39" width="12.7109375" customWidth="true"/>
+    <col min="40" max="40" width="12.7109375" customWidth="true"/>
+    <col min="41" max="41" width="12.7109375" customWidth="true"/>
+    <col min="42" max="42" width="12.7109375" customWidth="true"/>
+    <col min="43" max="43" width="12.7109375" customWidth="true"/>
+    <col min="44" max="44" width="12.7109375" customWidth="true"/>
+    <col min="45" max="45" width="12.7109375" customWidth="true"/>
+    <col min="46" max="46" width="12.7109375" customWidth="true"/>
+    <col min="47" max="47" width="12.7109375" customWidth="true"/>
+    <col min="48" max="48" width="12.7109375" customWidth="true"/>
+    <col min="49" max="49" width="12.7109375" customWidth="true"/>
+    <col min="50" max="50" width="12.7109375" customWidth="true"/>
+    <col min="51" max="51" width="12.7109375" customWidth="true"/>
+    <col min="52" max="52" width="12.7109375" customWidth="true"/>
+    <col min="53" max="53" width="12.7109375" customWidth="true"/>
+    <col min="54" max="54" width="12.7109375" customWidth="true"/>
+    <col min="55" max="55" width="12.7109375" customWidth="true"/>
+    <col min="56" max="56" width="12.7109375" customWidth="true"/>
+    <col min="57" max="57" width="12.7109375" customWidth="true"/>
+    <col min="58" max="58" width="12.7109375" customWidth="true"/>
+    <col min="59" max="59" width="12.7109375" customWidth="true"/>
+    <col min="60" max="60" width="12.7109375" customWidth="true"/>
+    <col min="61" max="61" width="12.7109375" customWidth="true"/>
+    <col min="62" max="62" width="12.7109375" customWidth="true"/>
+    <col min="63" max="63" width="12.7109375" customWidth="true"/>
+    <col min="64" max="64" width="12.7109375" customWidth="true"/>
+    <col min="65" max="65" width="12.7109375" customWidth="true"/>
+    <col min="66" max="66" width="12.7109375" customWidth="true"/>
+    <col min="67" max="67" width="12.7109375" customWidth="true"/>
+    <col min="68" max="68" width="12.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -131,13 +131,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="0">
-        <v>1</v>
+        <v>0.80259373283927027</v>
       </c>
       <c r="C1" s="0">
-        <v>1</v>
+        <v>0.69355162180368857</v>
       </c>
       <c r="D1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1" s="0">
         <v>0</v>
@@ -326,30 +326,30 @@
         <v>0</v>
       </c>
       <c r="BO1" s="0">
-        <v>1</v>
+        <v>0.62249600321382448</v>
       </c>
       <c r="BP1" s="0">
-        <v>1</v>
+        <v>0.72320170456307209</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>1</v>
+        <v>0.7907571645000846</v>
       </c>
       <c r="B2" s="0">
         <v>0</v>
       </c>
       <c r="C2" s="0">
-        <v>1</v>
+        <v>0.8765116846342258</v>
       </c>
       <c r="D2" s="0">
-        <v>1</v>
+        <v>0.80492452796392255</v>
       </c>
       <c r="E2" s="0">
         <v>0</v>
       </c>
       <c r="F2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" s="0">
         <v>0</v>
@@ -535,24 +535,24 @@
         <v>0</v>
       </c>
       <c r="BP2" s="0">
-        <v>1</v>
+        <v>0.86464320890703394</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>1</v>
+        <v>0.68537081814248479</v>
       </c>
       <c r="B3" s="0">
-        <v>1</v>
+        <v>0.93071985496064302</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>1</v>
+        <v>0.77044709331721195</v>
       </c>
       <c r="E3" s="0">
-        <v>0</v>
+        <v>0.98148201126485102</v>
       </c>
       <c r="F3" s="0">
         <v>0</v>
@@ -609,13 +609,13 @@
         <v>0</v>
       </c>
       <c r="X3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y3" s="0">
         <v>0</v>
       </c>
       <c r="Z3" s="0">
-        <v>0</v>
+        <v>0.70276153764821514</v>
       </c>
       <c r="AA3" s="0">
         <v>0</v>
@@ -729,7 +729,7 @@
         <v>0</v>
       </c>
       <c r="BL3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM3" s="0">
         <v>0</v>
@@ -746,13 +746,13 @@
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4" s="0">
-        <v>1</v>
+        <v>0.80401180904045966</v>
       </c>
       <c r="C4" s="0">
-        <v>1</v>
+        <v>0.98852961852102428</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="0">
-        <v>0</v>
+        <v>0.696592367604149</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="N4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4" s="0">
         <v>0</v>
@@ -848,7 +848,7 @@
         <v>0</v>
       </c>
       <c r="AI4" s="0">
-        <v>0</v>
+        <v>0.67403932664252753</v>
       </c>
       <c r="AJ4" s="0">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="0">
-        <v>0</v>
+        <v>0.70782942125924975</v>
       </c>
       <c r="D5" s="0">
         <v>0</v>
@@ -967,10 +967,10 @@
         <v>0</v>
       </c>
       <c r="F5" s="0">
-        <v>1</v>
+        <v>0.61446177756754217</v>
       </c>
       <c r="G5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" s="0">
         <v>0</v>
@@ -1036,7 +1036,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="0">
-        <v>0</v>
+        <v>0.87706050415019676</v>
       </c>
       <c r="AD5" s="0">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="AZ5" s="0">
-        <v>0</v>
+        <v>0.67226311434990327</v>
       </c>
       <c r="BA5" s="0">
         <v>0</v>
@@ -1161,22 +1161,22 @@
         <v>0</v>
       </c>
       <c r="B6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" s="0">
         <v>0</v>
       </c>
       <c r="D6" s="0">
-        <v>0</v>
+        <v>0.52085457808158941</v>
       </c>
       <c r="E6" s="0">
-        <v>1</v>
+        <v>0.65357974899882831</v>
       </c>
       <c r="F6" s="0">
         <v>0</v>
       </c>
       <c r="G6" s="0">
-        <v>0</v>
+        <v>0.60415014627267183</v>
       </c>
       <c r="H6" s="0">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="S6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T6" s="0">
         <v>0</v>
@@ -1329,7 +1329,7 @@
         <v>0</v>
       </c>
       <c r="BF6" s="0">
-        <v>0</v>
+        <v>0.76486905041460962</v>
       </c>
       <c r="BG6" s="0">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         <v>0</v>
       </c>
       <c r="E7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" s="0">
-        <v>0</v>
+        <v>0.51242368917683279</v>
       </c>
       <c r="G7" s="0">
         <v>0</v>
       </c>
       <c r="H7" s="0">
-        <v>1</v>
+        <v>0.72358225242784113</v>
       </c>
       <c r="I7" s="0">
-        <v>1</v>
+        <v>0.99507244005257367</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
@@ -1472,7 +1472,7 @@
         <v>0</v>
       </c>
       <c r="AK7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL7" s="0">
         <v>0</v>
@@ -1502,7 +1502,7 @@
         <v>0</v>
       </c>
       <c r="AU7" s="0">
-        <v>0</v>
+        <v>0.78419437584026275</v>
       </c>
       <c r="AV7" s="0">
         <v>0</v>
@@ -1588,19 +1588,19 @@
         <v>0</v>
       </c>
       <c r="G8" s="0">
-        <v>1</v>
+        <v>0.70397044643199447</v>
       </c>
       <c r="H8" s="0">
         <v>0</v>
       </c>
       <c r="I8" s="0">
-        <v>1</v>
+        <v>0.58748094783036064</v>
       </c>
       <c r="J8" s="0">
-        <v>0</v>
+        <v>0.72683423530445501</v>
       </c>
       <c r="K8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" s="0">
         <v>0</v>
@@ -1645,7 +1645,7 @@
         <v>0</v>
       </c>
       <c r="Z8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA8" s="0">
         <v>0</v>
@@ -1687,7 +1687,7 @@
         <v>0</v>
       </c>
       <c r="AN8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="0">
         <v>0</v>
@@ -1794,19 +1794,19 @@
         <v>0</v>
       </c>
       <c r="G9" s="0">
-        <v>1</v>
+        <v>0.75024350416538832</v>
       </c>
       <c r="H9" s="0">
-        <v>1</v>
+        <v>0.65781110912536001</v>
       </c>
       <c r="I9" s="0">
         <v>0</v>
       </c>
       <c r="J9" s="0">
-        <v>1</v>
+        <v>0.69719448630229652</v>
       </c>
       <c r="K9" s="0">
-        <v>0</v>
+        <v>0.77588021293325471</v>
       </c>
       <c r="L9" s="0">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="R9" s="0">
-        <v>0</v>
+        <v>0.69927430495641729</v>
       </c>
       <c r="S9" s="0">
         <v>0</v>
@@ -1869,7 +1869,7 @@
         <v>0</v>
       </c>
       <c r="AF9" s="0">
-        <v>0</v>
+        <v>0.75429292489594024</v>
       </c>
       <c r="AG9" s="0">
         <v>0</v>
@@ -1950,7 +1950,7 @@
         <v>0</v>
       </c>
       <c r="BG9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH9" s="0">
         <v>0</v>
@@ -2003,19 +2003,19 @@
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>0</v>
+        <v>0.85606342206580055</v>
       </c>
       <c r="I10" s="0">
-        <v>1</v>
+        <v>0.96030110100067911</v>
       </c>
       <c r="J10" s="0">
         <v>0</v>
       </c>
       <c r="K10" s="0">
-        <v>0</v>
+        <v>0.59810723282492173</v>
       </c>
       <c r="L10" s="0">
-        <v>0</v>
+        <v>0.66274415352920091</v>
       </c>
       <c r="M10" s="0">
         <v>0</v>
@@ -2030,7 +2030,7 @@
         <v>0</v>
       </c>
       <c r="Q10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R10" s="0">
         <v>0</v>
@@ -2045,7 +2045,7 @@
         <v>0</v>
       </c>
       <c r="V10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W10" s="0">
         <v>0</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="AW10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX10" s="0">
         <v>0</v>
@@ -2209,22 +2209,22 @@
         <v>0</v>
       </c>
       <c r="H11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" s="0">
-        <v>0</v>
+        <v>0.95451697391314361</v>
       </c>
       <c r="J11" s="0">
-        <v>0</v>
+        <v>0.50160420490210356</v>
       </c>
       <c r="K11" s="0">
         <v>0</v>
       </c>
       <c r="L11" s="0">
-        <v>0</v>
+        <v>0.86062237429283395</v>
       </c>
       <c r="M11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11" s="0">
         <v>0</v>
@@ -2233,7 +2233,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11" s="0">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="AY11" s="0">
-        <v>0</v>
+        <v>0.73026708888077541</v>
       </c>
       <c r="AZ11" s="0">
         <v>0</v>
@@ -2421,19 +2421,19 @@
         <v>0</v>
       </c>
       <c r="J12" s="0">
-        <v>0</v>
+        <v>0.84495696841767931</v>
       </c>
       <c r="K12" s="0">
-        <v>0</v>
+        <v>0.78655873732763704</v>
       </c>
       <c r="L12" s="0">
         <v>0</v>
       </c>
       <c r="M12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N12" s="0">
-        <v>1</v>
+        <v>0.53788326258362873</v>
       </c>
       <c r="O12" s="0">
         <v>0</v>
@@ -2469,7 +2469,7 @@
         <v>0</v>
       </c>
       <c r="Z12" s="0">
-        <v>0</v>
+        <v>0.80707982337403095</v>
       </c>
       <c r="AA12" s="0">
         <v>0</v>
@@ -2568,7 +2568,7 @@
         <v>0</v>
       </c>
       <c r="BG12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH12" s="0">
         <v>0</v>
@@ -2630,19 +2630,19 @@
         <v>0</v>
       </c>
       <c r="K13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13" s="0">
         <v>0</v>
       </c>
       <c r="N13" s="0">
-        <v>1</v>
+        <v>0.946499108099216</v>
       </c>
       <c r="O13" s="0">
-        <v>1</v>
+        <v>0.74840995157321866</v>
       </c>
       <c r="P13" s="0">
         <v>0</v>
@@ -2815,7 +2815,7 @@
         <v>0</v>
       </c>
       <c r="D14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" s="0">
         <v>0</v>
@@ -2839,19 +2839,19 @@
         <v>0</v>
       </c>
       <c r="L14" s="0">
-        <v>1</v>
+        <v>0.68380533002232702</v>
       </c>
       <c r="M14" s="0">
-        <v>1</v>
+        <v>0.7926928855416846</v>
       </c>
       <c r="N14" s="0">
         <v>0</v>
       </c>
       <c r="O14" s="0">
-        <v>1</v>
+        <v>0.84759506097686521</v>
       </c>
       <c r="P14" s="0">
-        <v>1</v>
+        <v>0.59572699876216895</v>
       </c>
       <c r="Q14" s="0">
         <v>0</v>
@@ -2863,7 +2863,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="0">
-        <v>0</v>
+        <v>0.79588700681280811</v>
       </c>
       <c r="U14" s="0">
         <v>0</v>
@@ -3048,19 +3048,19 @@
         <v>0</v>
       </c>
       <c r="M15" s="0">
-        <v>1</v>
+        <v>0.52069802655622466</v>
       </c>
       <c r="N15" s="0">
-        <v>1</v>
+        <v>0.59020964448264857</v>
       </c>
       <c r="O15" s="0">
         <v>0</v>
       </c>
       <c r="P15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="0">
-        <v>1</v>
+        <v>0.75416715754380159</v>
       </c>
       <c r="R15" s="0">
         <v>0</v>
@@ -3183,7 +3183,7 @@
         <v>0</v>
       </c>
       <c r="BF15" s="0">
-        <v>0</v>
+        <v>0.81080660879069222</v>
       </c>
       <c r="BG15" s="0">
         <v>0</v>
@@ -3248,7 +3248,7 @@
         <v>0</v>
       </c>
       <c r="K16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16" s="0">
         <v>0</v>
@@ -3257,10 +3257,10 @@
         <v>0</v>
       </c>
       <c r="N16" s="0">
-        <v>1</v>
+        <v>0.67819448867337617</v>
       </c>
       <c r="O16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16" s="0">
         <v>0</v>
@@ -3269,7 +3269,7 @@
         <v>0</v>
       </c>
       <c r="R16" s="0">
-        <v>1</v>
+        <v>0.92957678853152537</v>
       </c>
       <c r="S16" s="0">
         <v>0</v>
@@ -3293,7 +3293,7 @@
         <v>0</v>
       </c>
       <c r="Z16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA16" s="0">
         <v>0</v>
@@ -3380,7 +3380,7 @@
         <v>0</v>
       </c>
       <c r="BC16" s="0">
-        <v>0</v>
+        <v>0.57705022345777679</v>
       </c>
       <c r="BD16" s="0">
         <v>0</v>
@@ -3451,7 +3451,7 @@
         <v>0</v>
       </c>
       <c r="J17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" s="0">
         <v>0</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="O17" s="0">
-        <v>1</v>
+        <v>0.86597837169010328</v>
       </c>
       <c r="P17" s="0">
         <v>0</v>
@@ -3475,10 +3475,10 @@
         <v>0</v>
       </c>
       <c r="R17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S17" s="0">
-        <v>0</v>
+        <v>0.99689920105526919</v>
       </c>
       <c r="T17" s="0">
         <v>0</v>
@@ -3592,16 +3592,16 @@
         <v>0</v>
       </c>
       <c r="BE17" s="0">
-        <v>0</v>
+        <v>0.89001094156904148</v>
       </c>
       <c r="BF17" s="0">
-        <v>0</v>
+        <v>0.68759165736200245</v>
       </c>
       <c r="BG17" s="0">
         <v>0</v>
       </c>
       <c r="BH17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="0">
         <v>0</v>
@@ -3616,13 +3616,13 @@
         <v>0</v>
       </c>
       <c r="BM17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="0">
         <v>0</v>
       </c>
       <c r="BO17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP17" s="0">
         <v>0</v>
@@ -3654,7 +3654,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="0">
-        <v>0</v>
+        <v>0.99020287016935982</v>
       </c>
       <c r="J18" s="0">
         <v>0</v>
@@ -3675,19 +3675,19 @@
         <v>0</v>
       </c>
       <c r="P18" s="0">
-        <v>1</v>
+        <v>0.69540993877159951</v>
       </c>
       <c r="Q18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R18" s="0">
         <v>0</v>
       </c>
       <c r="S18" s="0">
-        <v>1</v>
+        <v>0.95767668104906345</v>
       </c>
       <c r="T18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U18" s="0">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="AB18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC18" s="0">
         <v>0</v>
@@ -3804,7 +3804,7 @@
         <v>0</v>
       </c>
       <c r="BG18" s="0">
-        <v>0</v>
+        <v>0.53442160200954447</v>
       </c>
       <c r="BH18" s="0">
         <v>0</v>
@@ -3851,7 +3851,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" s="0">
         <v>0</v>
@@ -3884,19 +3884,19 @@
         <v>0</v>
       </c>
       <c r="Q19" s="0">
-        <v>0</v>
+        <v>0.701426076875168</v>
       </c>
       <c r="R19" s="0">
-        <v>1</v>
+        <v>0.79423636776934403</v>
       </c>
       <c r="S19" s="0">
         <v>0</v>
       </c>
       <c r="T19" s="0">
-        <v>1</v>
+        <v>0.90187095963262087</v>
       </c>
       <c r="U19" s="0">
-        <v>1</v>
+        <v>0.69988020094132852</v>
       </c>
       <c r="V19" s="0">
         <v>0</v>
@@ -3968,13 +3968,13 @@
         <v>0</v>
       </c>
       <c r="AS19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="0">
         <v>0</v>
       </c>
       <c r="AU19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV19" s="0">
         <v>0</v>
@@ -4081,7 +4081,7 @@
         <v>0</v>
       </c>
       <c r="N20" s="0">
-        <v>0</v>
+        <v>0.98873415200878512</v>
       </c>
       <c r="O20" s="0">
         <v>0</v>
@@ -4093,19 +4093,19 @@
         <v>0</v>
       </c>
       <c r="R20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S20" s="0">
-        <v>1</v>
+        <v>0.51865339560535695</v>
       </c>
       <c r="T20" s="0">
         <v>0</v>
       </c>
       <c r="U20" s="0">
-        <v>1</v>
+        <v>0.88663132798935029</v>
       </c>
       <c r="V20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W20" s="0">
         <v>0</v>
@@ -4302,19 +4302,19 @@
         <v>0</v>
       </c>
       <c r="S21" s="0">
-        <v>1</v>
+        <v>0.85311497721446872</v>
       </c>
       <c r="T21" s="0">
-        <v>1</v>
+        <v>0.7096792962684717</v>
       </c>
       <c r="U21" s="0">
         <v>0</v>
       </c>
       <c r="V21" s="0">
-        <v>1</v>
+        <v>0.8636615500167647</v>
       </c>
       <c r="W21" s="0">
-        <v>1</v>
+        <v>0.95511581071439033</v>
       </c>
       <c r="X21" s="0">
         <v>0</v>
@@ -4371,7 +4371,7 @@
         <v>0</v>
       </c>
       <c r="AP21" s="0">
-        <v>0</v>
+        <v>0.50619901749266072</v>
       </c>
       <c r="AQ21" s="0">
         <v>0</v>
@@ -4481,7 +4481,7 @@
         <v>0</v>
       </c>
       <c r="J22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22" s="0">
         <v>0</v>
@@ -4511,10 +4511,10 @@
         <v>0</v>
       </c>
       <c r="T22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U22" s="0">
-        <v>1</v>
+        <v>0.83801400451029551</v>
       </c>
       <c r="V22" s="0">
         <v>0</v>
@@ -4523,7 +4523,7 @@
         <v>0</v>
       </c>
       <c r="X22" s="0">
-        <v>0</v>
+        <v>0.61353264005180663</v>
       </c>
       <c r="Y22" s="0">
         <v>0</v>
@@ -4538,7 +4538,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD22" s="0">
         <v>0</v>
@@ -4547,10 +4547,10 @@
         <v>0</v>
       </c>
       <c r="AF22" s="0">
-        <v>0</v>
+        <v>0.60722677642465617</v>
       </c>
       <c r="AG22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH22" s="0">
         <v>0</v>
@@ -4568,7 +4568,7 @@
         <v>0</v>
       </c>
       <c r="AM22" s="0">
-        <v>0</v>
+        <v>0.74022663880621664</v>
       </c>
       <c r="AN22" s="0">
         <v>0</v>
@@ -4598,7 +4598,7 @@
         <v>0</v>
       </c>
       <c r="AW22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX22" s="0">
         <v>0</v>
@@ -4720,7 +4720,7 @@
         <v>0</v>
       </c>
       <c r="U23" s="0">
-        <v>1</v>
+        <v>0.64210323603062402</v>
       </c>
       <c r="V23" s="0">
         <v>0</v>
@@ -4729,10 +4729,10 @@
         <v>0</v>
       </c>
       <c r="X23" s="0">
-        <v>1</v>
+        <v>0.99489612008245487</v>
       </c>
       <c r="Y23" s="0">
-        <v>1</v>
+        <v>0.79698105988083268</v>
       </c>
       <c r="Z23" s="0">
         <v>0</v>
@@ -4819,7 +4819,7 @@
         <v>0</v>
       </c>
       <c r="BB23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC23" s="0">
         <v>0</v>
@@ -4872,7 +4872,7 @@
         <v>0</v>
       </c>
       <c r="C24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" s="0">
         <v>0</v>
@@ -4929,19 +4929,19 @@
         <v>0</v>
       </c>
       <c r="V24" s="0">
-        <v>0</v>
+        <v>0.65798446133782029</v>
       </c>
       <c r="W24" s="0">
-        <v>1</v>
+        <v>0.67900330835975553</v>
       </c>
       <c r="X24" s="0">
         <v>0</v>
       </c>
       <c r="Y24" s="0">
-        <v>1</v>
+        <v>0.81437746071698514</v>
       </c>
       <c r="Z24" s="0">
-        <v>1</v>
+        <v>0.7446500972575707</v>
       </c>
       <c r="AA24" s="0">
         <v>0</v>
@@ -4965,7 +4965,7 @@
         <v>0</v>
       </c>
       <c r="AH24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI24" s="0">
         <v>0</v>
@@ -5138,19 +5138,19 @@
         <v>0</v>
       </c>
       <c r="W25" s="0">
-        <v>1</v>
+        <v>0.73727910336326952</v>
       </c>
       <c r="X25" s="0">
-        <v>1</v>
+        <v>0.9484819974786074</v>
       </c>
       <c r="Y25" s="0">
         <v>0</v>
       </c>
       <c r="Z25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB25" s="0">
         <v>0</v>
@@ -5189,7 +5189,7 @@
         <v>0</v>
       </c>
       <c r="AN25" s="0">
-        <v>0</v>
+        <v>0.55970362505365467</v>
       </c>
       <c r="AO25" s="0">
         <v>0</v>
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="BG25" s="0">
-        <v>0</v>
+        <v>0.6192129198947014</v>
       </c>
       <c r="BH25" s="0">
         <v>0</v>
@@ -5284,7 +5284,7 @@
         <v>0</v>
       </c>
       <c r="C26" s="0">
-        <v>0</v>
+        <v>0.82391785696168707</v>
       </c>
       <c r="D26" s="0">
         <v>0</v>
@@ -5299,7 +5299,7 @@
         <v>0</v>
       </c>
       <c r="H26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" s="0">
         <v>0</v>
@@ -5311,7 +5311,7 @@
         <v>0</v>
       </c>
       <c r="L26" s="0">
-        <v>0</v>
+        <v>0.89680406480336805</v>
       </c>
       <c r="M26" s="0">
         <v>0</v>
@@ -5323,7 +5323,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26" s="0">
         <v>0</v>
@@ -5347,19 +5347,19 @@
         <v>0</v>
       </c>
       <c r="X26" s="0">
-        <v>1</v>
+        <v>0.79542623672467938</v>
       </c>
       <c r="Y26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="0">
         <v>0</v>
       </c>
       <c r="AA26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB26" s="0">
-        <v>0</v>
+        <v>0.98913755805847114</v>
       </c>
       <c r="AC26" s="0">
         <v>0</v>
@@ -5425,7 +5425,7 @@
         <v>0</v>
       </c>
       <c r="AX26" s="0">
-        <v>0</v>
+        <v>0.58875273305728826</v>
       </c>
       <c r="AY26" s="0">
         <v>0</v>
@@ -5556,19 +5556,19 @@
         <v>0</v>
       </c>
       <c r="Y27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA27" s="0">
         <v>0</v>
       </c>
       <c r="AB27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC27" s="0">
-        <v>1</v>
+        <v>0.67966744790747358</v>
       </c>
       <c r="AD27" s="0">
         <v>0</v>
@@ -5649,7 +5649,7 @@
         <v>0</v>
       </c>
       <c r="BD27" s="0">
-        <v>0</v>
+        <v>0.52247073868659744</v>
       </c>
       <c r="BE27" s="0">
         <v>0</v>
@@ -5741,7 +5741,7 @@
         <v>0</v>
       </c>
       <c r="R28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S28" s="0">
         <v>0</v>
@@ -5765,19 +5765,19 @@
         <v>0</v>
       </c>
       <c r="Z28" s="0">
-        <v>0</v>
+        <v>0.9498658913675313</v>
       </c>
       <c r="AA28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB28" s="0">
         <v>0</v>
       </c>
       <c r="AC28" s="0">
-        <v>0</v>
+        <v>0.93538680070855751</v>
       </c>
       <c r="AD28" s="0">
-        <v>1</v>
+        <v>0.68577239555925429</v>
       </c>
       <c r="AE28" s="0">
         <v>0</v>
@@ -5908,7 +5908,7 @@
         <v>0</v>
       </c>
       <c r="E29" s="0">
-        <v>0</v>
+        <v>0.71991183269735481</v>
       </c>
       <c r="F29" s="0">
         <v>0</v>
@@ -5959,7 +5959,7 @@
         <v>0</v>
       </c>
       <c r="V29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W29" s="0">
         <v>0</v>
@@ -5974,19 +5974,19 @@
         <v>0</v>
       </c>
       <c r="AA29" s="0">
-        <v>1</v>
+        <v>0.79245131980508798</v>
       </c>
       <c r="AB29" s="0">
-        <v>0</v>
+        <v>0.97709654936972679</v>
       </c>
       <c r="AC29" s="0">
         <v>0</v>
       </c>
       <c r="AD29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF29" s="0">
         <v>0</v>
@@ -6022,13 +6022,13 @@
         <v>0</v>
       </c>
       <c r="AQ29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR29" s="0">
         <v>0</v>
       </c>
       <c r="AS29" s="0">
-        <v>0</v>
+        <v>0.65695163650052812</v>
       </c>
       <c r="AT29" s="0">
         <v>0</v>
@@ -6183,19 +6183,19 @@
         <v>0</v>
       </c>
       <c r="AB30" s="0">
-        <v>1</v>
+        <v>0.74939096413429707</v>
       </c>
       <c r="AC30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD30" s="0">
         <v>0</v>
       </c>
       <c r="AE30" s="0">
-        <v>1</v>
+        <v>0.98541560758090285</v>
       </c>
       <c r="AF30" s="0">
-        <v>1</v>
+        <v>0.60109964412018635</v>
       </c>
       <c r="AG30" s="0">
         <v>0</v>
@@ -6392,19 +6392,19 @@
         <v>0</v>
       </c>
       <c r="AC31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD31" s="0">
-        <v>1</v>
+        <v>0.64706669692009866</v>
       </c>
       <c r="AE31" s="0">
         <v>0</v>
       </c>
       <c r="AF31" s="0">
-        <v>1</v>
+        <v>0.5474876631573673</v>
       </c>
       <c r="AG31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH31" s="0">
         <v>0</v>
@@ -6455,7 +6455,7 @@
         <v>0</v>
       </c>
       <c r="AX31" s="0">
-        <v>0</v>
+        <v>0.51018745526019971</v>
       </c>
       <c r="AY31" s="0">
         <v>0</v>
@@ -6538,7 +6538,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="0">
-        <v>0</v>
+        <v>0.94425384632779408</v>
       </c>
       <c r="J32" s="0">
         <v>0</v>
@@ -6577,7 +6577,7 @@
         <v>0</v>
       </c>
       <c r="V32" s="0">
-        <v>0</v>
+        <v>0.82447853089763967</v>
       </c>
       <c r="W32" s="0">
         <v>0</v>
@@ -6601,16 +6601,16 @@
         <v>0</v>
       </c>
       <c r="AD32" s="0">
-        <v>1</v>
+        <v>0.88581646743325748</v>
       </c>
       <c r="AE32" s="0">
-        <v>1</v>
+        <v>0.83650767673215287</v>
       </c>
       <c r="AF32" s="0">
         <v>0</v>
       </c>
       <c r="AG32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH32" s="0">
         <v>0</v>
@@ -6634,7 +6634,7 @@
         <v>0</v>
       </c>
       <c r="AO32" s="0">
-        <v>0</v>
+        <v>0.63035730813886426</v>
       </c>
       <c r="AP32" s="0">
         <v>0</v>
@@ -6649,7 +6649,7 @@
         <v>0</v>
       </c>
       <c r="AT32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU32" s="0">
         <v>0</v>
@@ -6783,7 +6783,7 @@
         <v>0</v>
       </c>
       <c r="V33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W33" s="0">
         <v>0</v>
@@ -6810,19 +6810,19 @@
         <v>0</v>
       </c>
       <c r="AE33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG33" s="0">
         <v>0</v>
       </c>
       <c r="AH33" s="0">
-        <v>0</v>
+        <v>0.68808625834574122</v>
       </c>
       <c r="AI33" s="0">
-        <v>1</v>
+        <v>0.78819888430038842</v>
       </c>
       <c r="AJ33" s="0">
         <v>0</v>
@@ -6861,7 +6861,7 @@
         <v>0</v>
       </c>
       <c r="AV33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW33" s="0">
         <v>0</v>
@@ -6882,10 +6882,10 @@
         <v>0</v>
       </c>
       <c r="BC33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD33" s="0">
-        <v>0</v>
+        <v>0.69911422366694254</v>
       </c>
       <c r="BE33" s="0">
         <v>0</v>
@@ -6995,7 +6995,7 @@
         <v>0</v>
       </c>
       <c r="X34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y34" s="0">
         <v>0</v>
@@ -7022,16 +7022,16 @@
         <v>0</v>
       </c>
       <c r="AG34" s="0">
-        <v>0</v>
+        <v>0.85893276212978642</v>
       </c>
       <c r="AH34" s="0">
         <v>0</v>
       </c>
       <c r="AI34" s="0">
-        <v>0</v>
+        <v>0.59804738369992472</v>
       </c>
       <c r="AJ34" s="0">
-        <v>0</v>
+        <v>0.6239705375787663</v>
       </c>
       <c r="AK34" s="0">
         <v>0</v>
@@ -7100,7 +7100,7 @@
         <v>0</v>
       </c>
       <c r="BG34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH34" s="0">
         <v>0</v>
@@ -7141,7 +7141,7 @@
         <v>0</v>
       </c>
       <c r="D35" s="0">
-        <v>0</v>
+        <v>0.75623441669188773</v>
       </c>
       <c r="E35" s="0">
         <v>0</v>
@@ -7228,19 +7228,19 @@
         <v>0</v>
       </c>
       <c r="AG35" s="0">
-        <v>1</v>
+        <v>0.80213773010997746</v>
       </c>
       <c r="AH35" s="0">
-        <v>0</v>
+        <v>0.56691774329828171</v>
       </c>
       <c r="AI35" s="0">
         <v>0</v>
       </c>
       <c r="AJ35" s="0">
-        <v>1</v>
+        <v>0.72969040713114608</v>
       </c>
       <c r="AK35" s="0">
-        <v>1</v>
+        <v>0.7810185039687525</v>
       </c>
       <c r="AL35" s="0">
         <v>0</v>
@@ -7437,19 +7437,19 @@
         <v>0</v>
       </c>
       <c r="AH36" s="0">
-        <v>0</v>
+        <v>0.96908537917190651</v>
       </c>
       <c r="AI36" s="0">
-        <v>1</v>
+        <v>0.7560095305572001</v>
       </c>
       <c r="AJ36" s="0">
         <v>0</v>
       </c>
       <c r="AK36" s="0">
-        <v>1</v>
+        <v>0.62663440676400151</v>
       </c>
       <c r="AL36" s="0">
-        <v>1</v>
+        <v>0.53561708857029533</v>
       </c>
       <c r="AM36" s="0">
         <v>0</v>
@@ -7562,7 +7562,7 @@
         <v>0</v>
       </c>
       <c r="G37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37" s="0">
         <v>0</v>
@@ -7646,25 +7646,25 @@
         <v>0</v>
       </c>
       <c r="AI37" s="0">
-        <v>1</v>
+        <v>0.81776173449418277</v>
       </c>
       <c r="AJ37" s="0">
-        <v>1</v>
+        <v>0.96083967433405504</v>
       </c>
       <c r="AK37" s="0">
         <v>0</v>
       </c>
       <c r="AL37" s="0">
-        <v>0</v>
+        <v>0.60211076786884021</v>
       </c>
       <c r="AM37" s="0">
-        <v>1</v>
+        <v>0.75192975494155856</v>
       </c>
       <c r="AN37" s="0">
         <v>0</v>
       </c>
       <c r="AO37" s="0">
-        <v>0</v>
+        <v>0.720661897333297</v>
       </c>
       <c r="AP37" s="0">
         <v>0</v>
@@ -7855,19 +7855,19 @@
         <v>0</v>
       </c>
       <c r="AJ38" s="0">
-        <v>1</v>
+        <v>0.82736360102386386</v>
       </c>
       <c r="AK38" s="0">
-        <v>0</v>
+        <v>0.77909097264914928</v>
       </c>
       <c r="AL38" s="0">
         <v>0</v>
       </c>
       <c r="AM38" s="0">
-        <v>1</v>
+        <v>0.8428269695238646</v>
       </c>
       <c r="AN38" s="0">
-        <v>1</v>
+        <v>0.6922790551338126</v>
       </c>
       <c r="AO38" s="0">
         <v>0</v>
@@ -8019,7 +8019,7 @@
         <v>0</v>
       </c>
       <c r="V39" s="0">
-        <v>0</v>
+        <v>0.9143429622965662</v>
       </c>
       <c r="W39" s="0">
         <v>0</v>
@@ -8064,16 +8064,16 @@
         <v>0</v>
       </c>
       <c r="AK39" s="0">
-        <v>1</v>
+        <v>0.51529901038643122</v>
       </c>
       <c r="AL39" s="0">
-        <v>1</v>
+        <v>0.96519269540330666</v>
       </c>
       <c r="AM39" s="0">
         <v>0</v>
       </c>
       <c r="AN39" s="0">
-        <v>1</v>
+        <v>0.96313217895925529</v>
       </c>
       <c r="AO39" s="0">
         <v>0</v>
@@ -8091,7 +8091,7 @@
         <v>0</v>
       </c>
       <c r="AT39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU39" s="0">
         <v>0</v>
@@ -8112,7 +8112,7 @@
         <v>0</v>
       </c>
       <c r="BA39" s="0">
-        <v>0</v>
+        <v>0.64355834072790696</v>
       </c>
       <c r="BB39" s="0">
         <v>0</v>
@@ -8183,7 +8183,7 @@
         <v>0</v>
       </c>
       <c r="H40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" s="0">
         <v>0</v>
@@ -8234,7 +8234,7 @@
         <v>0</v>
       </c>
       <c r="Y40" s="0">
-        <v>0</v>
+        <v>0.54961878267187281</v>
       </c>
       <c r="Z40" s="0">
         <v>0</v>
@@ -8273,10 +8273,10 @@
         <v>0</v>
       </c>
       <c r="AL40" s="0">
-        <v>1</v>
+        <v>0.67653119968927855</v>
       </c>
       <c r="AM40" s="0">
-        <v>1</v>
+        <v>0.75279858006434841</v>
       </c>
       <c r="AN40" s="0">
         <v>0</v>
@@ -8285,7 +8285,7 @@
         <v>0</v>
       </c>
       <c r="AP40" s="0">
-        <v>1</v>
+        <v>0.91125815282778955</v>
       </c>
       <c r="AQ40" s="0">
         <v>0</v>
@@ -8297,13 +8297,13 @@
         <v>0</v>
       </c>
       <c r="AT40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU40" s="0">
         <v>0</v>
       </c>
       <c r="AV40" s="0">
-        <v>0</v>
+        <v>0.65402857181481067</v>
       </c>
       <c r="AW40" s="0">
         <v>0</v>
@@ -8461,7 +8461,7 @@
         <v>0</v>
       </c>
       <c r="AF41" s="0">
-        <v>0</v>
+        <v>0.63361570587124438</v>
       </c>
       <c r="AG41" s="0">
         <v>0</v>
@@ -8476,7 +8476,7 @@
         <v>0</v>
       </c>
       <c r="AK41" s="0">
-        <v>0</v>
+        <v>0.89365137467350308</v>
       </c>
       <c r="AL41" s="0">
         <v>0</v>
@@ -8494,7 +8494,7 @@
         <v>0</v>
       </c>
       <c r="AQ41" s="0">
-        <v>0</v>
+        <v>0.92238444140417286</v>
       </c>
       <c r="AR41" s="0">
         <v>0</v>
@@ -8509,13 +8509,13 @@
         <v>0</v>
       </c>
       <c r="AV41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW41" s="0">
         <v>0</v>
       </c>
       <c r="AX41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY41" s="0">
         <v>0</v>
@@ -8634,7 +8634,7 @@
         <v>0</v>
       </c>
       <c r="U42" s="0">
-        <v>0</v>
+        <v>0.56891781421045229</v>
       </c>
       <c r="V42" s="0">
         <v>0</v>
@@ -8691,7 +8691,7 @@
         <v>0</v>
       </c>
       <c r="AN42" s="0">
-        <v>1</v>
+        <v>0.56050909488683143</v>
       </c>
       <c r="AO42" s="0">
         <v>0</v>
@@ -8700,10 +8700,10 @@
         <v>0</v>
       </c>
       <c r="AQ42" s="0">
-        <v>1</v>
+        <v>0.61970461197068305</v>
       </c>
       <c r="AR42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS42" s="0">
         <v>0</v>
@@ -8864,7 +8864,7 @@
         <v>0</v>
       </c>
       <c r="AC43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD43" s="0">
         <v>0</v>
@@ -8900,19 +8900,19 @@
         <v>0</v>
       </c>
       <c r="AO43" s="0">
-        <v>0</v>
+        <v>0.9423664764685169</v>
       </c>
       <c r="AP43" s="0">
-        <v>1</v>
+        <v>0.66017088035908833</v>
       </c>
       <c r="AQ43" s="0">
         <v>0</v>
       </c>
       <c r="AR43" s="0">
-        <v>0</v>
+        <v>0.53131800579010835</v>
       </c>
       <c r="AS43" s="0">
-        <v>1</v>
+        <v>0.97998288299629377</v>
       </c>
       <c r="AT43" s="0">
         <v>0</v>
@@ -9109,19 +9109,19 @@
         <v>0</v>
       </c>
       <c r="AP44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ44" s="0">
-        <v>0</v>
+        <v>0.77362023078426057</v>
       </c>
       <c r="AR44" s="0">
         <v>0</v>
       </c>
       <c r="AS44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT44" s="0">
-        <v>1</v>
+        <v>0.75070504275417549</v>
       </c>
       <c r="AU44" s="0">
         <v>0</v>
@@ -9184,7 +9184,7 @@
         <v>0</v>
       </c>
       <c r="BO44" s="0">
-        <v>0</v>
+        <v>0.7442355695570726</v>
       </c>
       <c r="BP44" s="0">
         <v>0</v>
@@ -9246,7 +9246,7 @@
         <v>0</v>
       </c>
       <c r="S45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T45" s="0">
         <v>0</v>
@@ -9276,7 +9276,7 @@
         <v>0</v>
       </c>
       <c r="AC45" s="0">
-        <v>0</v>
+        <v>0.81495842467671165</v>
       </c>
       <c r="AD45" s="0">
         <v>0</v>
@@ -9318,19 +9318,19 @@
         <v>0</v>
       </c>
       <c r="AQ45" s="0">
-        <v>1</v>
+        <v>0.85300235538984515</v>
       </c>
       <c r="AR45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS45" s="0">
         <v>0</v>
       </c>
       <c r="AT45" s="0">
-        <v>0</v>
+        <v>0.81960052671513517</v>
       </c>
       <c r="AU45" s="0">
-        <v>0</v>
+        <v>0.76253943547551439</v>
       </c>
       <c r="AV45" s="0">
         <v>0</v>
@@ -9384,7 +9384,7 @@
         <v>0</v>
       </c>
       <c r="BM45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN45" s="0">
         <v>0</v>
@@ -9491,7 +9491,7 @@
         <v>0</v>
       </c>
       <c r="AF46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG46" s="0">
         <v>0</v>
@@ -9512,10 +9512,10 @@
         <v>0</v>
       </c>
       <c r="AM46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO46" s="0">
         <v>0</v>
@@ -9527,16 +9527,16 @@
         <v>0</v>
       </c>
       <c r="AR46" s="0">
-        <v>1</v>
+        <v>0.78608753139860399</v>
       </c>
       <c r="AS46" s="0">
-        <v>0</v>
+        <v>0.80043917459834324</v>
       </c>
       <c r="AT46" s="0">
         <v>0</v>
       </c>
       <c r="AU46" s="0">
-        <v>1</v>
+        <v>0.77958664930316612</v>
       </c>
       <c r="AV46" s="0">
         <v>0</v>
@@ -9578,7 +9578,7 @@
         <v>0</v>
       </c>
       <c r="BI46" s="0">
-        <v>0</v>
+        <v>0.550441105630183</v>
       </c>
       <c r="BJ46" s="0">
         <v>0</v>
@@ -9599,7 +9599,7 @@
         <v>0</v>
       </c>
       <c r="BP46" s="0">
-        <v>0</v>
+        <v>0.94457163427058832</v>
       </c>
     </row>
     <row r="47">
@@ -9622,7 +9622,7 @@
         <v>0</v>
       </c>
       <c r="G47" s="0">
-        <v>0</v>
+        <v>0.81832694000908579</v>
       </c>
       <c r="H47" s="0">
         <v>0</v>
@@ -9658,7 +9658,7 @@
         <v>0</v>
       </c>
       <c r="S47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T47" s="0">
         <v>0</v>
@@ -9736,16 +9736,16 @@
         <v>0</v>
       </c>
       <c r="AS47" s="0">
-        <v>0</v>
+        <v>0.96919156166232356</v>
       </c>
       <c r="AT47" s="0">
-        <v>1</v>
+        <v>0.82778686176752558</v>
       </c>
       <c r="AU47" s="0">
         <v>0</v>
       </c>
       <c r="AV47" s="0">
-        <v>1</v>
+        <v>0.68351048978952533</v>
       </c>
       <c r="AW47" s="0">
         <v>0</v>
@@ -9906,7 +9906,7 @@
         <v>0</v>
       </c>
       <c r="AG48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH48" s="0">
         <v>0</v>
@@ -9927,10 +9927,10 @@
         <v>0</v>
       </c>
       <c r="AN48" s="0">
-        <v>0</v>
+        <v>0.70489334642046875</v>
       </c>
       <c r="AO48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP48" s="0">
         <v>0</v>
@@ -9948,16 +9948,16 @@
         <v>0</v>
       </c>
       <c r="AU48" s="0">
-        <v>1</v>
+        <v>0.87107774640236191</v>
       </c>
       <c r="AV48" s="0">
         <v>0</v>
       </c>
       <c r="AW48" s="0">
-        <v>0</v>
+        <v>0.62785316615084685</v>
       </c>
       <c r="AX48" s="0">
-        <v>1</v>
+        <v>0.75385446188782002</v>
       </c>
       <c r="AY48" s="0">
         <v>0</v>
@@ -10043,7 +10043,7 @@
         <v>0</v>
       </c>
       <c r="J49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K49" s="0">
         <v>0</v>
@@ -10079,7 +10079,7 @@
         <v>0</v>
       </c>
       <c r="V49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W49" s="0">
         <v>0</v>
@@ -10157,19 +10157,19 @@
         <v>0</v>
       </c>
       <c r="AV49" s="0">
-        <v>0</v>
+        <v>0.85277742659876599</v>
       </c>
       <c r="AW49" s="0">
         <v>0</v>
       </c>
       <c r="AX49" s="0">
-        <v>0</v>
+        <v>0.66661335312292958</v>
       </c>
       <c r="AY49" s="0">
-        <v>1</v>
+        <v>0.78352145529725836</v>
       </c>
       <c r="AZ49" s="0">
-        <v>0</v>
+        <v>0.68956312151425925</v>
       </c>
       <c r="BA49" s="0">
         <v>0</v>
@@ -10208,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="BM49" s="0">
-        <v>0</v>
+        <v>0.83535562461133295</v>
       </c>
       <c r="BN49" s="0">
         <v>0</v>
@@ -10297,7 +10297,7 @@
         <v>0</v>
       </c>
       <c r="Z50" s="0">
-        <v>0</v>
+        <v>0.96930723592938195</v>
       </c>
       <c r="AA50" s="0">
         <v>0</v>
@@ -10312,7 +10312,7 @@
         <v>0</v>
       </c>
       <c r="AE50" s="0">
-        <v>0</v>
+        <v>0.85809330897567193</v>
       </c>
       <c r="AF50" s="0">
         <v>0</v>
@@ -10342,7 +10342,7 @@
         <v>0</v>
       </c>
       <c r="AO50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP50" s="0">
         <v>0</v>
@@ -10363,19 +10363,19 @@
         <v>0</v>
       </c>
       <c r="AV50" s="0">
-        <v>1</v>
+        <v>0.87064447785932741</v>
       </c>
       <c r="AW50" s="0">
-        <v>0</v>
+        <v>0.50731453875789101</v>
       </c>
       <c r="AX50" s="0">
         <v>0</v>
       </c>
       <c r="AY50" s="0">
-        <v>0</v>
+        <v>0.93821350983823382</v>
       </c>
       <c r="AZ50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA50" s="0">
         <v>0</v>
@@ -10414,7 +10414,7 @@
         <v>0</v>
       </c>
       <c r="BM50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN50" s="0">
         <v>0</v>
@@ -10458,7 +10458,7 @@
         <v>0</v>
       </c>
       <c r="K51" s="0">
-        <v>0</v>
+        <v>0.93812181784764892</v>
       </c>
       <c r="L51" s="0">
         <v>0</v>
@@ -10572,19 +10572,19 @@
         <v>0</v>
       </c>
       <c r="AW51" s="0">
-        <v>1</v>
+        <v>0.80786236865529126</v>
       </c>
       <c r="AX51" s="0">
-        <v>0</v>
+        <v>0.87150160778613484</v>
       </c>
       <c r="AY51" s="0">
         <v>0</v>
       </c>
       <c r="AZ51" s="0">
-        <v>1</v>
+        <v>0.54987810647296564</v>
       </c>
       <c r="BA51" s="0">
-        <v>1</v>
+        <v>0.92236506843239208</v>
       </c>
       <c r="BB51" s="0">
         <v>0</v>
@@ -10599,7 +10599,7 @@
         <v>0</v>
       </c>
       <c r="BF51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG51" s="0">
         <v>0</v>
@@ -10646,7 +10646,7 @@
         <v>0</v>
       </c>
       <c r="E52" s="0">
-        <v>0</v>
+        <v>0.64575137420829576</v>
       </c>
       <c r="F52" s="0">
         <v>0</v>
@@ -10778,22 +10778,22 @@
         <v>0</v>
       </c>
       <c r="AW52" s="0">
-        <v>0</v>
+        <v>0.50754087266224646</v>
       </c>
       <c r="AX52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY52" s="0">
-        <v>1</v>
+        <v>0.83896299086194848</v>
       </c>
       <c r="AZ52" s="0">
         <v>0</v>
       </c>
       <c r="BA52" s="0">
-        <v>1</v>
+        <v>0.50867138234602172</v>
       </c>
       <c r="BB52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC52" s="0">
         <v>0</v>
@@ -10954,7 +10954,7 @@
         <v>0</v>
       </c>
       <c r="AM53" s="0">
-        <v>0</v>
+        <v>0.54782129267071444</v>
       </c>
       <c r="AN53" s="0">
         <v>0</v>
@@ -10990,19 +10990,19 @@
         <v>0</v>
       </c>
       <c r="AY53" s="0">
-        <v>1</v>
+        <v>0.99090491246333601</v>
       </c>
       <c r="AZ53" s="0">
-        <v>1</v>
+        <v>0.85230387931807416</v>
       </c>
       <c r="BA53" s="0">
         <v>0</v>
       </c>
       <c r="BB53" s="0">
-        <v>1</v>
+        <v>0.77194235520576515</v>
       </c>
       <c r="BC53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD53" s="0">
         <v>0</v>
@@ -11112,7 +11112,7 @@
         <v>0</v>
       </c>
       <c r="W54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X54" s="0">
         <v>0</v>
@@ -11199,19 +11199,19 @@
         <v>0</v>
       </c>
       <c r="AZ54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA54" s="0">
-        <v>1</v>
+        <v>0.70003382364070388</v>
       </c>
       <c r="BB54" s="0">
         <v>0</v>
       </c>
       <c r="BC54" s="0">
-        <v>0</v>
+        <v>0.96565176512634332</v>
       </c>
       <c r="BD54" s="0">
-        <v>0</v>
+        <v>0.61286750128561374</v>
       </c>
       <c r="BE54" s="0">
         <v>0</v>
@@ -11232,7 +11232,7 @@
         <v>0</v>
       </c>
       <c r="BK54" s="0">
-        <v>1</v>
+        <v>0.90221197869527781</v>
       </c>
       <c r="BL54" s="0">
         <v>0</v>
@@ -11297,7 +11297,7 @@
         <v>0</v>
       </c>
       <c r="P55" s="0">
-        <v>0</v>
+        <v>0.52530963942849462</v>
       </c>
       <c r="Q55" s="0">
         <v>0</v>
@@ -11348,7 +11348,7 @@
         <v>0</v>
       </c>
       <c r="AG55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH55" s="0">
         <v>0</v>
@@ -11408,10 +11408,10 @@
         <v>0</v>
       </c>
       <c r="BA55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB55" s="0">
-        <v>0</v>
+        <v>0.73398951544407232</v>
       </c>
       <c r="BC55" s="0">
         <v>0</v>
@@ -11420,7 +11420,7 @@
         <v>0</v>
       </c>
       <c r="BE55" s="0">
-        <v>1</v>
+        <v>0.95719864446298231</v>
       </c>
       <c r="BF55" s="0">
         <v>0</v>
@@ -11432,7 +11432,7 @@
         <v>0</v>
       </c>
       <c r="BI55" s="0">
-        <v>0</v>
+        <v>0.99423546421850717</v>
       </c>
       <c r="BJ55" s="0">
         <v>0</v>
@@ -11536,7 +11536,7 @@
         <v>0</v>
       </c>
       <c r="AA56" s="0">
-        <v>0</v>
+        <v>0.74770457770775467</v>
       </c>
       <c r="AB56" s="0">
         <v>0</v>
@@ -11554,7 +11554,7 @@
         <v>0</v>
       </c>
       <c r="AG56" s="0">
-        <v>0</v>
+        <v>0.96433013033600845</v>
       </c>
       <c r="AH56" s="0">
         <v>0</v>
@@ -11617,7 +11617,7 @@
         <v>0</v>
       </c>
       <c r="BB56" s="0">
-        <v>0</v>
+        <v>0.98687988503153545</v>
       </c>
       <c r="BC56" s="0">
         <v>0</v>
@@ -11626,10 +11626,10 @@
         <v>0</v>
       </c>
       <c r="BE56" s="0">
-        <v>1</v>
+        <v>0.7527139223971604</v>
       </c>
       <c r="BF56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG56" s="0">
         <v>0</v>
@@ -11712,7 +11712,7 @@
         <v>0</v>
       </c>
       <c r="Q57" s="0">
-        <v>0</v>
+        <v>0.9393294330387163</v>
       </c>
       <c r="R57" s="0">
         <v>0</v>
@@ -11826,19 +11826,19 @@
         <v>0</v>
       </c>
       <c r="BC57" s="0">
-        <v>1</v>
+        <v>0.73947941542571893</v>
       </c>
       <c r="BD57" s="0">
-        <v>1</v>
+        <v>0.55250416140456671</v>
       </c>
       <c r="BE57" s="0">
         <v>0</v>
       </c>
       <c r="BF57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG57" s="0">
-        <v>1</v>
+        <v>0.92634616538044878</v>
       </c>
       <c r="BH57" s="0">
         <v>0</v>
@@ -11885,7 +11885,7 @@
         <v>0</v>
       </c>
       <c r="F58" s="0">
-        <v>0</v>
+        <v>0.55692154425692086</v>
       </c>
       <c r="G58" s="0">
         <v>0</v>
@@ -11912,13 +11912,13 @@
         <v>0</v>
       </c>
       <c r="O58" s="0">
-        <v>0</v>
+        <v>0.62350202954217315</v>
       </c>
       <c r="P58" s="0">
         <v>0</v>
       </c>
       <c r="Q58" s="0">
-        <v>0</v>
+        <v>0.53191035168793155</v>
       </c>
       <c r="R58" s="0">
         <v>0</v>
@@ -12020,7 +12020,7 @@
         <v>0</v>
       </c>
       <c r="AY58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ58" s="0">
         <v>0</v>
@@ -12035,19 +12035,19 @@
         <v>0</v>
       </c>
       <c r="BD58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF58" s="0">
         <v>0</v>
       </c>
       <c r="BG58" s="0">
-        <v>0</v>
+        <v>0.83968561787498175</v>
       </c>
       <c r="BH58" s="0">
-        <v>0</v>
+        <v>0.86870831204942356</v>
       </c>
       <c r="BI58" s="0">
         <v>0</v>
@@ -12059,7 +12059,7 @@
         <v>0</v>
       </c>
       <c r="BL58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM58" s="0">
         <v>0</v>
@@ -12100,7 +12100,7 @@
         <v>0</v>
       </c>
       <c r="I59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J59" s="0">
         <v>0</v>
@@ -12109,7 +12109,7 @@
         <v>0</v>
       </c>
       <c r="L59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M59" s="0">
         <v>0</v>
@@ -12127,7 +12127,7 @@
         <v>0</v>
       </c>
       <c r="R59" s="0">
-        <v>0</v>
+        <v>0.91894999563539792</v>
       </c>
       <c r="S59" s="0">
         <v>0</v>
@@ -12148,7 +12148,7 @@
         <v>0</v>
       </c>
       <c r="Y59" s="0">
-        <v>0</v>
+        <v>0.77093728812163742</v>
       </c>
       <c r="Z59" s="0">
         <v>0</v>
@@ -12175,7 +12175,7 @@
         <v>0</v>
       </c>
       <c r="AH59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI59" s="0">
         <v>0</v>
@@ -12244,16 +12244,16 @@
         <v>0</v>
       </c>
       <c r="BE59" s="0">
-        <v>1</v>
+        <v>0.54741614509067726</v>
       </c>
       <c r="BF59" s="0">
-        <v>0</v>
+        <v>0.58400069826068013</v>
       </c>
       <c r="BG59" s="0">
         <v>0</v>
       </c>
       <c r="BH59" s="0">
-        <v>1</v>
+        <v>0.57117626888887862</v>
       </c>
       <c r="BI59" s="0">
         <v>0</v>
@@ -12330,7 +12330,7 @@
         <v>0</v>
       </c>
       <c r="Q60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R60" s="0">
         <v>0</v>
@@ -12453,19 +12453,19 @@
         <v>0</v>
       </c>
       <c r="BF60" s="0">
-        <v>0</v>
+        <v>0.91804064750767567</v>
       </c>
       <c r="BG60" s="0">
-        <v>1</v>
+        <v>0.60563917712368942</v>
       </c>
       <c r="BH60" s="0">
         <v>0</v>
       </c>
       <c r="BI60" s="0">
-        <v>0</v>
+        <v>0.82080587256762394</v>
       </c>
       <c r="BJ60" s="0">
-        <v>1</v>
+        <v>0.60446403277330207</v>
       </c>
       <c r="BK60" s="0">
         <v>0</v>
@@ -12623,7 +12623,7 @@
         <v>0</v>
       </c>
       <c r="AT61" s="0">
-        <v>0</v>
+        <v>0.73273670042584182</v>
       </c>
       <c r="AU61" s="0">
         <v>0</v>
@@ -12650,7 +12650,7 @@
         <v>0</v>
       </c>
       <c r="BC61" s="0">
-        <v>0</v>
+        <v>0.7239286385919429</v>
       </c>
       <c r="BD61" s="0">
         <v>0</v>
@@ -12665,16 +12665,16 @@
         <v>0</v>
       </c>
       <c r="BH61" s="0">
-        <v>0</v>
+        <v>0.99890973758808554</v>
       </c>
       <c r="BI61" s="0">
         <v>0</v>
       </c>
       <c r="BJ61" s="0">
-        <v>1</v>
+        <v>0.73899182391127716</v>
       </c>
       <c r="BK61" s="0">
-        <v>1</v>
+        <v>0.54377527441007301</v>
       </c>
       <c r="BL61" s="0">
         <v>0</v>
@@ -12871,25 +12871,25 @@
         <v>0</v>
       </c>
       <c r="BH62" s="0">
-        <v>1</v>
+        <v>0.57176258021567339</v>
       </c>
       <c r="BI62" s="0">
-        <v>1</v>
+        <v>0.77620997589916252</v>
       </c>
       <c r="BJ62" s="0">
         <v>0</v>
       </c>
       <c r="BK62" s="0">
-        <v>1</v>
+        <v>0.51658913186204403</v>
       </c>
       <c r="BL62" s="0">
-        <v>1</v>
+        <v>0.58938132926253795</v>
       </c>
       <c r="BM62" s="0">
         <v>0</v>
       </c>
       <c r="BN62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO62" s="0">
         <v>0</v>
@@ -13059,7 +13059,7 @@
         <v>0</v>
       </c>
       <c r="BB63" s="0">
-        <v>1</v>
+        <v>0.56094886520021203</v>
       </c>
       <c r="BC63" s="0">
         <v>0</v>
@@ -13080,19 +13080,19 @@
         <v>0</v>
       </c>
       <c r="BI63" s="0">
-        <v>1</v>
+        <v>0.50812946998781316</v>
       </c>
       <c r="BJ63" s="0">
-        <v>1</v>
+        <v>0.67329492325607676</v>
       </c>
       <c r="BK63" s="0">
         <v>0</v>
       </c>
       <c r="BL63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN63" s="0">
         <v>0</v>
@@ -13112,7 +13112,7 @@
         <v>0</v>
       </c>
       <c r="C64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D64" s="0">
         <v>0</v>
@@ -13277,7 +13277,7 @@
         <v>0</v>
       </c>
       <c r="BF64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG64" s="0">
         <v>0</v>
@@ -13289,19 +13289,19 @@
         <v>0</v>
       </c>
       <c r="BJ64" s="0">
-        <v>1</v>
+        <v>0.73226749806828928</v>
       </c>
       <c r="BK64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL64" s="0">
         <v>0</v>
       </c>
       <c r="BM64" s="0">
-        <v>1</v>
+        <v>0.50548694038252406</v>
       </c>
       <c r="BN64" s="0">
-        <v>0</v>
+        <v>0.89656685059119501</v>
       </c>
       <c r="BO64" s="0">
         <v>0</v>
@@ -13360,7 +13360,7 @@
         <v>0</v>
       </c>
       <c r="Q65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R65" s="0">
         <v>0</v>
@@ -13444,7 +13444,7 @@
         <v>0</v>
       </c>
       <c r="AS65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT65" s="0">
         <v>0</v>
@@ -13456,10 +13456,10 @@
         <v>0</v>
       </c>
       <c r="AW65" s="0">
-        <v>0</v>
+        <v>0.82726458720811191</v>
       </c>
       <c r="AX65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY65" s="0">
         <v>0</v>
@@ -13498,19 +13498,19 @@
         <v>0</v>
       </c>
       <c r="BK65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL65" s="0">
-        <v>1</v>
+        <v>0.59901022939820625</v>
       </c>
       <c r="BM65" s="0">
         <v>0</v>
       </c>
       <c r="BN65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO65" s="0">
-        <v>0</v>
+        <v>0.7915402061423511</v>
       </c>
       <c r="BP65" s="0">
         <v>0</v>
@@ -13701,30 +13701,30 @@
         <v>0</v>
       </c>
       <c r="BJ66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK66" s="0">
         <v>0</v>
       </c>
       <c r="BL66" s="0">
-        <v>0</v>
+        <v>0.96054995255122977</v>
       </c>
       <c r="BM66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN66" s="0">
         <v>0</v>
       </c>
       <c r="BO66" s="0">
-        <v>1</v>
+        <v>0.86770777673031407</v>
       </c>
       <c r="BP66" s="0">
-        <v>0</v>
+        <v>0.57560378535948709</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0">
-        <v>1</v>
+        <v>0.829539891452441</v>
       </c>
       <c r="B67" s="0">
         <v>0</v>
@@ -13772,7 +13772,7 @@
         <v>0</v>
       </c>
       <c r="Q67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R67" s="0">
         <v>0</v>
@@ -13853,7 +13853,7 @@
         <v>0</v>
       </c>
       <c r="AR67" s="0">
-        <v>0</v>
+        <v>0.73408976179613294</v>
       </c>
       <c r="AS67" s="0">
         <v>0</v>
@@ -13916,24 +13916,24 @@
         <v>0</v>
       </c>
       <c r="BM67" s="0">
-        <v>0</v>
+        <v>0.9922404187548115</v>
       </c>
       <c r="BN67" s="0">
-        <v>1</v>
+        <v>0.70663210357323325</v>
       </c>
       <c r="BO67" s="0">
         <v>0</v>
       </c>
       <c r="BP67" s="0">
-        <v>1</v>
+        <v>0.92463525661813195</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0">
-        <v>1</v>
+        <v>0.82007215063909134</v>
       </c>
       <c r="B68" s="0">
-        <v>1</v>
+        <v>0.97385068678740483</v>
       </c>
       <c r="C68" s="0">
         <v>0</v>
@@ -14065,7 +14065,7 @@
         <v>0</v>
       </c>
       <c r="AT68" s="0">
-        <v>0</v>
+        <v>0.76516010510700461</v>
       </c>
       <c r="AU68" s="0">
         <v>0</v>
@@ -14125,10 +14125,10 @@
         <v>0</v>
       </c>
       <c r="BN68" s="0">
-        <v>0</v>
+        <v>0.62409669713198546</v>
       </c>
       <c r="BO68" s="0">
-        <v>1</v>
+        <v>0.79709947808113157</v>
       </c>
       <c r="BP68" s="0">
         <v>0</v>

--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject2.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject2.xlsx
@@ -326,21 +326,21 @@
         <v>0</v>
       </c>
       <c r="BO1" s="0">
-        <v>0.62249600321382448</v>
+        <v>0.829539891452441</v>
       </c>
       <c r="BP1" s="0">
-        <v>0.72320170456307209</v>
+        <v>0.82007215063909134</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.7907571645000846</v>
+        <v>0.80259373283927027</v>
       </c>
       <c r="B2" s="0">
         <v>0</v>
       </c>
       <c r="C2" s="0">
-        <v>0.8765116846342258</v>
+        <v>0.93071985496064302</v>
       </c>
       <c r="D2" s="0">
         <v>0.80492452796392255</v>
@@ -535,12 +535,12 @@
         <v>0</v>
       </c>
       <c r="BP2" s="0">
-        <v>0.86464320890703394</v>
+        <v>0.97385068678740483</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.68537081814248479</v>
+        <v>0.69355162180368857</v>
       </c>
       <c r="B3" s="0">
         <v>0.93071985496064302</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>0.77044709331721195</v>
+        <v>0.98852961852102428</v>
       </c>
       <c r="E3" s="0">
         <v>0.98148201126485102</v>
@@ -615,7 +615,7 @@
         <v>0</v>
       </c>
       <c r="Z3" s="0">
-        <v>0.70276153764821514</v>
+        <v>0.82391785696168707</v>
       </c>
       <c r="AA3" s="0">
         <v>0</v>
@@ -749,7 +749,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="0">
-        <v>0.80401180904045966</v>
+        <v>0.80492452796392255</v>
       </c>
       <c r="C4" s="0">
         <v>0.98852961852102428</v>
@@ -848,7 +848,7 @@
         <v>0</v>
       </c>
       <c r="AI4" s="0">
-        <v>0.67403932664252753</v>
+        <v>0.75623441669188773</v>
       </c>
       <c r="AJ4" s="0">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="0">
-        <v>0.70782942125924975</v>
+        <v>0.98148201126485102</v>
       </c>
       <c r="D5" s="0">
         <v>0</v>
@@ -967,7 +967,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="0">
-        <v>0.61446177756754217</v>
+        <v>0.65357974899882831</v>
       </c>
       <c r="G5" s="0">
         <v>0</v>
@@ -1167,7 +1167,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="0">
-        <v>0.52085457808158941</v>
+        <v>0.696592367604149</v>
       </c>
       <c r="E6" s="0">
         <v>0.65357974899882831</v>
@@ -1379,7 +1379,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="0">
-        <v>0.51242368917683279</v>
+        <v>0.60415014627267183</v>
       </c>
       <c r="G7" s="0">
         <v>0</v>
@@ -1502,7 +1502,7 @@
         <v>0</v>
       </c>
       <c r="AU7" s="0">
-        <v>0.78419437584026275</v>
+        <v>0.81832694000908579</v>
       </c>
       <c r="AV7" s="0">
         <v>0</v>
@@ -1588,16 +1588,16 @@
         <v>0</v>
       </c>
       <c r="G8" s="0">
-        <v>0.70397044643199447</v>
+        <v>0.72358225242784113</v>
       </c>
       <c r="H8" s="0">
         <v>0</v>
       </c>
       <c r="I8" s="0">
-        <v>0.58748094783036064</v>
+        <v>0.65781110912536001</v>
       </c>
       <c r="J8" s="0">
-        <v>0.72683423530445501</v>
+        <v>0.85606342206580055</v>
       </c>
       <c r="K8" s="0">
         <v>0</v>
@@ -1794,7 +1794,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="0">
-        <v>0.75024350416538832</v>
+        <v>0.99507244005257367</v>
       </c>
       <c r="H9" s="0">
         <v>0.65781110912536001</v>
@@ -1803,10 +1803,10 @@
         <v>0</v>
       </c>
       <c r="J9" s="0">
-        <v>0.69719448630229652</v>
+        <v>0.96030110100067911</v>
       </c>
       <c r="K9" s="0">
-        <v>0.77588021293325471</v>
+        <v>0.95451697391314361</v>
       </c>
       <c r="L9" s="0">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="R9" s="0">
-        <v>0.69927430495641729</v>
+        <v>0.99020287016935982</v>
       </c>
       <c r="S9" s="0">
         <v>0</v>
@@ -1869,7 +1869,7 @@
         <v>0</v>
       </c>
       <c r="AF9" s="0">
-        <v>0.75429292489594024</v>
+        <v>0.94425384632779408</v>
       </c>
       <c r="AG9" s="0">
         <v>0</v>
@@ -2015,7 +2015,7 @@
         <v>0.59810723282492173</v>
       </c>
       <c r="L10" s="0">
-        <v>0.66274415352920091</v>
+        <v>0.84495696841767931</v>
       </c>
       <c r="M10" s="0">
         <v>0</v>
@@ -2215,7 +2215,7 @@
         <v>0.95451697391314361</v>
       </c>
       <c r="J11" s="0">
-        <v>0.50160420490210356</v>
+        <v>0.59810723282492173</v>
       </c>
       <c r="K11" s="0">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="AY11" s="0">
-        <v>0.73026708888077541</v>
+        <v>0.93812181784764892</v>
       </c>
       <c r="AZ11" s="0">
         <v>0</v>
@@ -2424,7 +2424,7 @@
         <v>0.84495696841767931</v>
       </c>
       <c r="K12" s="0">
-        <v>0.78655873732763704</v>
+        <v>0.86062237429283395</v>
       </c>
       <c r="L12" s="0">
         <v>0</v>
@@ -2433,7 +2433,7 @@
         <v>0</v>
       </c>
       <c r="N12" s="0">
-        <v>0.53788326258362873</v>
+        <v>0.68380533002232702</v>
       </c>
       <c r="O12" s="0">
         <v>0</v>
@@ -2469,7 +2469,7 @@
         <v>0</v>
       </c>
       <c r="Z12" s="0">
-        <v>0.80707982337403095</v>
+        <v>0.89680406480336805</v>
       </c>
       <c r="AA12" s="0">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0.68380533002232702</v>
       </c>
       <c r="M14" s="0">
-        <v>0.7926928855416846</v>
+        <v>0.946499108099216</v>
       </c>
       <c r="N14" s="0">
         <v>0</v>
@@ -2851,7 +2851,7 @@
         <v>0.84759506097686521</v>
       </c>
       <c r="P14" s="0">
-        <v>0.59572699876216895</v>
+        <v>0.67819448867337617</v>
       </c>
       <c r="Q14" s="0">
         <v>0</v>
@@ -2863,7 +2863,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="0">
-        <v>0.79588700681280811</v>
+        <v>0.98873415200878512</v>
       </c>
       <c r="U14" s="0">
         <v>0</v>
@@ -3048,10 +3048,10 @@
         <v>0</v>
       </c>
       <c r="M15" s="0">
-        <v>0.52069802655622466</v>
+        <v>0.74840995157321866</v>
       </c>
       <c r="N15" s="0">
-        <v>0.59020964448264857</v>
+        <v>0.84759506097686521</v>
       </c>
       <c r="O15" s="0">
         <v>0</v>
@@ -3060,7 +3060,7 @@
         <v>0</v>
       </c>
       <c r="Q15" s="0">
-        <v>0.75416715754380159</v>
+        <v>0.86597837169010328</v>
       </c>
       <c r="R15" s="0">
         <v>0</v>
@@ -3592,7 +3592,7 @@
         <v>0</v>
       </c>
       <c r="BE17" s="0">
-        <v>0.89001094156904148</v>
+        <v>0.9393294330387163</v>
       </c>
       <c r="BF17" s="0">
         <v>0.68759165736200245</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="0">
-        <v>0.69540993877159951</v>
+        <v>0.92957678853152537</v>
       </c>
       <c r="Q18" s="0">
         <v>0</v>
@@ -3804,7 +3804,7 @@
         <v>0</v>
       </c>
       <c r="BG18" s="0">
-        <v>0.53442160200954447</v>
+        <v>0.91894999563539792</v>
       </c>
       <c r="BH18" s="0">
         <v>0</v>
@@ -3884,10 +3884,10 @@
         <v>0</v>
       </c>
       <c r="Q19" s="0">
-        <v>0.701426076875168</v>
+        <v>0.99689920105526919</v>
       </c>
       <c r="R19" s="0">
-        <v>0.79423636776934403</v>
+        <v>0.95767668104906345</v>
       </c>
       <c r="S19" s="0">
         <v>0</v>
@@ -3896,7 +3896,7 @@
         <v>0.90187095963262087</v>
       </c>
       <c r="U19" s="0">
-        <v>0.69988020094132852</v>
+        <v>0.85311497721446872</v>
       </c>
       <c r="V19" s="0">
         <v>0</v>
@@ -4096,7 +4096,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="0">
-        <v>0.51865339560535695</v>
+        <v>0.90187095963262087</v>
       </c>
       <c r="T20" s="0">
         <v>0</v>
@@ -4305,7 +4305,7 @@
         <v>0.85311497721446872</v>
       </c>
       <c r="T21" s="0">
-        <v>0.7096792962684717</v>
+        <v>0.88663132798935029</v>
       </c>
       <c r="U21" s="0">
         <v>0</v>
@@ -4371,7 +4371,7 @@
         <v>0</v>
       </c>
       <c r="AP21" s="0">
-        <v>0.50619901749266072</v>
+        <v>0.56891781421045229</v>
       </c>
       <c r="AQ21" s="0">
         <v>0</v>
@@ -4514,7 +4514,7 @@
         <v>0</v>
       </c>
       <c r="U22" s="0">
-        <v>0.83801400451029551</v>
+        <v>0.8636615500167647</v>
       </c>
       <c r="V22" s="0">
         <v>0</v>
@@ -4523,7 +4523,7 @@
         <v>0</v>
       </c>
       <c r="X22" s="0">
-        <v>0.61353264005180663</v>
+        <v>0.65798446133782029</v>
       </c>
       <c r="Y22" s="0">
         <v>0</v>
@@ -4547,7 +4547,7 @@
         <v>0</v>
       </c>
       <c r="AF22" s="0">
-        <v>0.60722677642465617</v>
+        <v>0.82447853089763967</v>
       </c>
       <c r="AG22" s="0">
         <v>0</v>
@@ -4568,7 +4568,7 @@
         <v>0</v>
       </c>
       <c r="AM22" s="0">
-        <v>0.74022663880621664</v>
+        <v>0.9143429622965662</v>
       </c>
       <c r="AN22" s="0">
         <v>0</v>
@@ -4720,7 +4720,7 @@
         <v>0</v>
       </c>
       <c r="U23" s="0">
-        <v>0.64210323603062402</v>
+        <v>0.95511581071439033</v>
       </c>
       <c r="V23" s="0">
         <v>0</v>
@@ -4932,16 +4932,16 @@
         <v>0.65798446133782029</v>
       </c>
       <c r="W24" s="0">
-        <v>0.67900330835975553</v>
+        <v>0.99489612008245487</v>
       </c>
       <c r="X24" s="0">
         <v>0</v>
       </c>
       <c r="Y24" s="0">
-        <v>0.81437746071698514</v>
+        <v>0.9484819974786074</v>
       </c>
       <c r="Z24" s="0">
-        <v>0.7446500972575707</v>
+        <v>0.79542623672467938</v>
       </c>
       <c r="AA24" s="0">
         <v>0</v>
@@ -5138,7 +5138,7 @@
         <v>0</v>
       </c>
       <c r="W25" s="0">
-        <v>0.73727910336326952</v>
+        <v>0.79698105988083268</v>
       </c>
       <c r="X25" s="0">
         <v>0.9484819974786074</v>
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="BG25" s="0">
-        <v>0.6192129198947014</v>
+        <v>0.77093728812163742</v>
       </c>
       <c r="BH25" s="0">
         <v>0</v>
@@ -5425,7 +5425,7 @@
         <v>0</v>
       </c>
       <c r="AX26" s="0">
-        <v>0.58875273305728826</v>
+        <v>0.96930723592938195</v>
       </c>
       <c r="AY26" s="0">
         <v>0</v>
@@ -5568,7 +5568,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="0">
-        <v>0.67966744790747358</v>
+        <v>0.79245131980508798</v>
       </c>
       <c r="AD27" s="0">
         <v>0</v>
@@ -5649,7 +5649,7 @@
         <v>0</v>
       </c>
       <c r="BD27" s="0">
-        <v>0.52247073868659744</v>
+        <v>0.74770457770775467</v>
       </c>
       <c r="BE27" s="0">
         <v>0</v>
@@ -5765,7 +5765,7 @@
         <v>0</v>
       </c>
       <c r="Z28" s="0">
-        <v>0.9498658913675313</v>
+        <v>0.98913755805847114</v>
       </c>
       <c r="AA28" s="0">
         <v>0</v>
@@ -5774,10 +5774,10 @@
         <v>0</v>
       </c>
       <c r="AC28" s="0">
-        <v>0.93538680070855751</v>
+        <v>0.97709654936972679</v>
       </c>
       <c r="AD28" s="0">
-        <v>0.68577239555925429</v>
+        <v>0.74939096413429707</v>
       </c>
       <c r="AE28" s="0">
         <v>0</v>
@@ -5908,7 +5908,7 @@
         <v>0</v>
       </c>
       <c r="E29" s="0">
-        <v>0.71991183269735481</v>
+        <v>0.87706050415019676</v>
       </c>
       <c r="F29" s="0">
         <v>0</v>
@@ -6028,7 +6028,7 @@
         <v>0</v>
       </c>
       <c r="AS29" s="0">
-        <v>0.65695163650052812</v>
+        <v>0.81495842467671165</v>
       </c>
       <c r="AT29" s="0">
         <v>0</v>
@@ -6195,7 +6195,7 @@
         <v>0.98541560758090285</v>
       </c>
       <c r="AF30" s="0">
-        <v>0.60109964412018635</v>
+        <v>0.88581646743325748</v>
       </c>
       <c r="AG30" s="0">
         <v>0</v>
@@ -6395,13 +6395,13 @@
         <v>0</v>
       </c>
       <c r="AD31" s="0">
-        <v>0.64706669692009866</v>
+        <v>0.98541560758090285</v>
       </c>
       <c r="AE31" s="0">
         <v>0</v>
       </c>
       <c r="AF31" s="0">
-        <v>0.5474876631573673</v>
+        <v>0.83650767673215287</v>
       </c>
       <c r="AG31" s="0">
         <v>0</v>
@@ -6455,7 +6455,7 @@
         <v>0</v>
       </c>
       <c r="AX31" s="0">
-        <v>0.51018745526019971</v>
+        <v>0.85809330897567193</v>
       </c>
       <c r="AY31" s="0">
         <v>0</v>
@@ -6634,7 +6634,7 @@
         <v>0</v>
       </c>
       <c r="AO32" s="0">
-        <v>0.63035730813886426</v>
+        <v>0.63361570587124438</v>
       </c>
       <c r="AP32" s="0">
         <v>0</v>
@@ -6819,10 +6819,10 @@
         <v>0</v>
       </c>
       <c r="AH33" s="0">
-        <v>0.68808625834574122</v>
+        <v>0.85893276212978642</v>
       </c>
       <c r="AI33" s="0">
-        <v>0.78819888430038842</v>
+        <v>0.80213773010997746</v>
       </c>
       <c r="AJ33" s="0">
         <v>0</v>
@@ -6885,7 +6885,7 @@
         <v>0</v>
       </c>
       <c r="BD33" s="0">
-        <v>0.69911422366694254</v>
+        <v>0.96433013033600845</v>
       </c>
       <c r="BE33" s="0">
         <v>0</v>
@@ -7031,7 +7031,7 @@
         <v>0.59804738369992472</v>
       </c>
       <c r="AJ34" s="0">
-        <v>0.6239705375787663</v>
+        <v>0.96908537917190651</v>
       </c>
       <c r="AK34" s="0">
         <v>0</v>
@@ -7231,16 +7231,16 @@
         <v>0.80213773010997746</v>
       </c>
       <c r="AH35" s="0">
-        <v>0.56691774329828171</v>
+        <v>0.59804738369992472</v>
       </c>
       <c r="AI35" s="0">
         <v>0</v>
       </c>
       <c r="AJ35" s="0">
-        <v>0.72969040713114608</v>
+        <v>0.7560095305572001</v>
       </c>
       <c r="AK35" s="0">
-        <v>0.7810185039687525</v>
+        <v>0.81776173449418277</v>
       </c>
       <c r="AL35" s="0">
         <v>0</v>
@@ -7446,10 +7446,10 @@
         <v>0</v>
       </c>
       <c r="AK36" s="0">
-        <v>0.62663440676400151</v>
+        <v>0.96083967433405504</v>
       </c>
       <c r="AL36" s="0">
-        <v>0.53561708857029533</v>
+        <v>0.82736360102386386</v>
       </c>
       <c r="AM36" s="0">
         <v>0</v>
@@ -7655,7 +7655,7 @@
         <v>0</v>
       </c>
       <c r="AL37" s="0">
-        <v>0.60211076786884021</v>
+        <v>0.77909097264914928</v>
       </c>
       <c r="AM37" s="0">
         <v>0.75192975494155856</v>
@@ -7664,7 +7664,7 @@
         <v>0</v>
       </c>
       <c r="AO37" s="0">
-        <v>0.720661897333297</v>
+        <v>0.89365137467350308</v>
       </c>
       <c r="AP37" s="0">
         <v>0</v>
@@ -7864,7 +7864,7 @@
         <v>0</v>
       </c>
       <c r="AM38" s="0">
-        <v>0.8428269695238646</v>
+        <v>0.96519269540330666</v>
       </c>
       <c r="AN38" s="0">
         <v>0.6922790551338126</v>
@@ -8064,7 +8064,7 @@
         <v>0</v>
       </c>
       <c r="AK39" s="0">
-        <v>0.51529901038643122</v>
+        <v>0.75192975494155856</v>
       </c>
       <c r="AL39" s="0">
         <v>0.96519269540330666</v>
@@ -8234,7 +8234,7 @@
         <v>0</v>
       </c>
       <c r="Y40" s="0">
-        <v>0.54961878267187281</v>
+        <v>0.55970362505365467</v>
       </c>
       <c r="Z40" s="0">
         <v>0</v>
@@ -8273,10 +8273,10 @@
         <v>0</v>
       </c>
       <c r="AL40" s="0">
-        <v>0.67653119968927855</v>
+        <v>0.6922790551338126</v>
       </c>
       <c r="AM40" s="0">
-        <v>0.75279858006434841</v>
+        <v>0.96313217895925529</v>
       </c>
       <c r="AN40" s="0">
         <v>0</v>
@@ -8303,7 +8303,7 @@
         <v>0</v>
       </c>
       <c r="AV40" s="0">
-        <v>0.65402857181481067</v>
+        <v>0.70489334642046875</v>
       </c>
       <c r="AW40" s="0">
         <v>0</v>
@@ -8494,7 +8494,7 @@
         <v>0</v>
       </c>
       <c r="AQ41" s="0">
-        <v>0.92238444140417286</v>
+        <v>0.9423664764685169</v>
       </c>
       <c r="AR41" s="0">
         <v>0</v>
@@ -8691,7 +8691,7 @@
         <v>0</v>
       </c>
       <c r="AN42" s="0">
-        <v>0.56050909488683143</v>
+        <v>0.91125815282778955</v>
       </c>
       <c r="AO42" s="0">
         <v>0</v>
@@ -8700,7 +8700,7 @@
         <v>0</v>
       </c>
       <c r="AQ42" s="0">
-        <v>0.61970461197068305</v>
+        <v>0.66017088035908833</v>
       </c>
       <c r="AR42" s="0">
         <v>0</v>
@@ -8909,7 +8909,7 @@
         <v>0</v>
       </c>
       <c r="AR43" s="0">
-        <v>0.53131800579010835</v>
+        <v>0.77362023078426057</v>
       </c>
       <c r="AS43" s="0">
         <v>0.97998288299629377</v>
@@ -9121,7 +9121,7 @@
         <v>0</v>
       </c>
       <c r="AT44" s="0">
-        <v>0.75070504275417549</v>
+        <v>0.78608753139860399</v>
       </c>
       <c r="AU44" s="0">
         <v>0</v>
@@ -9318,7 +9318,7 @@
         <v>0</v>
       </c>
       <c r="AQ45" s="0">
-        <v>0.85300235538984515</v>
+        <v>0.97998288299629377</v>
       </c>
       <c r="AR45" s="0">
         <v>0</v>
@@ -9330,7 +9330,7 @@
         <v>0.81960052671513517</v>
       </c>
       <c r="AU45" s="0">
-        <v>0.76253943547551439</v>
+        <v>0.96919156166232356</v>
       </c>
       <c r="AV45" s="0">
         <v>0</v>
@@ -9530,13 +9530,13 @@
         <v>0.78608753139860399</v>
       </c>
       <c r="AS46" s="0">
-        <v>0.80043917459834324</v>
+        <v>0.81960052671513517</v>
       </c>
       <c r="AT46" s="0">
         <v>0</v>
       </c>
       <c r="AU46" s="0">
-        <v>0.77958664930316612</v>
+        <v>0.82778686176752558</v>
       </c>
       <c r="AV46" s="0">
         <v>0</v>
@@ -9578,7 +9578,7 @@
         <v>0</v>
       </c>
       <c r="BI46" s="0">
-        <v>0.550441105630183</v>
+        <v>0.73273670042584182</v>
       </c>
       <c r="BJ46" s="0">
         <v>0</v>
@@ -9745,7 +9745,7 @@
         <v>0</v>
       </c>
       <c r="AV47" s="0">
-        <v>0.68351048978952533</v>
+        <v>0.87107774640236191</v>
       </c>
       <c r="AW47" s="0">
         <v>0</v>
@@ -9954,10 +9954,10 @@
         <v>0</v>
       </c>
       <c r="AW48" s="0">
-        <v>0.62785316615084685</v>
+        <v>0.85277742659876599</v>
       </c>
       <c r="AX48" s="0">
-        <v>0.75385446188782002</v>
+        <v>0.87064447785932741</v>
       </c>
       <c r="AY48" s="0">
         <v>0</v>
@@ -10166,7 +10166,7 @@
         <v>0.66661335312292958</v>
       </c>
       <c r="AY49" s="0">
-        <v>0.78352145529725836</v>
+        <v>0.80786236865529126</v>
       </c>
       <c r="AZ49" s="0">
         <v>0.68956312151425925</v>
@@ -10366,7 +10366,7 @@
         <v>0.87064447785932741</v>
       </c>
       <c r="AW50" s="0">
-        <v>0.50731453875789101</v>
+        <v>0.66661335312292958</v>
       </c>
       <c r="AX50" s="0">
         <v>0</v>
@@ -10575,16 +10575,16 @@
         <v>0.80786236865529126</v>
       </c>
       <c r="AX51" s="0">
-        <v>0.87150160778613484</v>
+        <v>0.93821350983823382</v>
       </c>
       <c r="AY51" s="0">
         <v>0</v>
       </c>
       <c r="AZ51" s="0">
-        <v>0.54987810647296564</v>
+        <v>0.83896299086194848</v>
       </c>
       <c r="BA51" s="0">
-        <v>0.92236506843239208</v>
+        <v>0.99090491246333601</v>
       </c>
       <c r="BB51" s="0">
         <v>0</v>
@@ -10646,7 +10646,7 @@
         <v>0</v>
       </c>
       <c r="E52" s="0">
-        <v>0.64575137420829576</v>
+        <v>0.67226311434990327</v>
       </c>
       <c r="F52" s="0">
         <v>0</v>
@@ -10778,7 +10778,7 @@
         <v>0</v>
       </c>
       <c r="AW52" s="0">
-        <v>0.50754087266224646</v>
+        <v>0.68956312151425925</v>
       </c>
       <c r="AX52" s="0">
         <v>0</v>
@@ -10790,7 +10790,7 @@
         <v>0</v>
       </c>
       <c r="BA52" s="0">
-        <v>0.50867138234602172</v>
+        <v>0.85230387931807416</v>
       </c>
       <c r="BB52" s="0">
         <v>0</v>
@@ -10954,7 +10954,7 @@
         <v>0</v>
       </c>
       <c r="AM53" s="0">
-        <v>0.54782129267071444</v>
+        <v>0.64355834072790696</v>
       </c>
       <c r="AN53" s="0">
         <v>0</v>
@@ -11202,7 +11202,7 @@
         <v>0</v>
       </c>
       <c r="BA54" s="0">
-        <v>0.70003382364070388</v>
+        <v>0.77194235520576515</v>
       </c>
       <c r="BB54" s="0">
         <v>0</v>
@@ -11211,7 +11211,7 @@
         <v>0.96565176512634332</v>
       </c>
       <c r="BD54" s="0">
-        <v>0.61286750128561374</v>
+        <v>0.98687988503153545</v>
       </c>
       <c r="BE54" s="0">
         <v>0</v>
@@ -11297,7 +11297,7 @@
         <v>0</v>
       </c>
       <c r="P55" s="0">
-        <v>0.52530963942849462</v>
+        <v>0.57705022345777679</v>
       </c>
       <c r="Q55" s="0">
         <v>0</v>
@@ -11411,7 +11411,7 @@
         <v>0</v>
       </c>
       <c r="BB55" s="0">
-        <v>0.73398951544407232</v>
+        <v>0.96565176512634332</v>
       </c>
       <c r="BC55" s="0">
         <v>0</v>
@@ -11826,10 +11826,10 @@
         <v>0</v>
       </c>
       <c r="BC57" s="0">
-        <v>0.73947941542571893</v>
+        <v>0.95719864446298231</v>
       </c>
       <c r="BD57" s="0">
-        <v>0.55250416140456671</v>
+        <v>0.7527139223971604</v>
       </c>
       <c r="BE57" s="0">
         <v>0</v>
@@ -11885,7 +11885,7 @@
         <v>0</v>
       </c>
       <c r="F58" s="0">
-        <v>0.55692154425692086</v>
+        <v>0.76486905041460962</v>
       </c>
       <c r="G58" s="0">
         <v>0</v>
@@ -11912,13 +11912,13 @@
         <v>0</v>
       </c>
       <c r="O58" s="0">
-        <v>0.62350202954217315</v>
+        <v>0.81080660879069222</v>
       </c>
       <c r="P58" s="0">
         <v>0</v>
       </c>
       <c r="Q58" s="0">
-        <v>0.53191035168793155</v>
+        <v>0.68759165736200245</v>
       </c>
       <c r="R58" s="0">
         <v>0</v>
@@ -12047,7 +12047,7 @@
         <v>0.83968561787498175</v>
       </c>
       <c r="BH58" s="0">
-        <v>0.86870831204942356</v>
+        <v>0.91804064750767567</v>
       </c>
       <c r="BI58" s="0">
         <v>0</v>
@@ -12244,16 +12244,16 @@
         <v>0</v>
       </c>
       <c r="BE59" s="0">
-        <v>0.54741614509067726</v>
+        <v>0.92634616538044878</v>
       </c>
       <c r="BF59" s="0">
-        <v>0.58400069826068013</v>
+        <v>0.83968561787498175</v>
       </c>
       <c r="BG59" s="0">
         <v>0</v>
       </c>
       <c r="BH59" s="0">
-        <v>0.57117626888887862</v>
+        <v>0.60563917712368942</v>
       </c>
       <c r="BI59" s="0">
         <v>0</v>
@@ -12462,7 +12462,7 @@
         <v>0</v>
       </c>
       <c r="BI60" s="0">
-        <v>0.82080587256762394</v>
+        <v>0.99890973758808554</v>
       </c>
       <c r="BJ60" s="0">
         <v>0.60446403277330207</v>
@@ -12650,7 +12650,7 @@
         <v>0</v>
       </c>
       <c r="BC61" s="0">
-        <v>0.7239286385919429</v>
+        <v>0.99423546421850717</v>
       </c>
       <c r="BD61" s="0">
         <v>0</v>
@@ -12671,7 +12671,7 @@
         <v>0</v>
       </c>
       <c r="BJ61" s="0">
-        <v>0.73899182391127716</v>
+        <v>0.77620997589916252</v>
       </c>
       <c r="BK61" s="0">
         <v>0.54377527441007301</v>
@@ -12871,7 +12871,7 @@
         <v>0</v>
       </c>
       <c r="BH62" s="0">
-        <v>0.57176258021567339</v>
+        <v>0.60446403277330207</v>
       </c>
       <c r="BI62" s="0">
         <v>0.77620997589916252</v>
@@ -12880,10 +12880,10 @@
         <v>0</v>
       </c>
       <c r="BK62" s="0">
-        <v>0.51658913186204403</v>
+        <v>0.67329492325607676</v>
       </c>
       <c r="BL62" s="0">
-        <v>0.58938132926253795</v>
+        <v>0.73226749806828928</v>
       </c>
       <c r="BM62" s="0">
         <v>0</v>
@@ -13059,7 +13059,7 @@
         <v>0</v>
       </c>
       <c r="BB63" s="0">
-        <v>0.56094886520021203</v>
+        <v>0.90221197869527781</v>
       </c>
       <c r="BC63" s="0">
         <v>0</v>
@@ -13080,7 +13080,7 @@
         <v>0</v>
       </c>
       <c r="BI63" s="0">
-        <v>0.50812946998781316</v>
+        <v>0.54377527441007301</v>
       </c>
       <c r="BJ63" s="0">
         <v>0.67329492325607676</v>
@@ -13298,10 +13298,10 @@
         <v>0</v>
       </c>
       <c r="BM64" s="0">
-        <v>0.50548694038252406</v>
+        <v>0.59901022939820625</v>
       </c>
       <c r="BN64" s="0">
-        <v>0.89656685059119501</v>
+        <v>0.96054995255122977</v>
       </c>
       <c r="BO64" s="0">
         <v>0</v>
@@ -13456,7 +13456,7 @@
         <v>0</v>
       </c>
       <c r="AW65" s="0">
-        <v>0.82726458720811191</v>
+        <v>0.83535562461133295</v>
       </c>
       <c r="AX65" s="0">
         <v>0</v>
@@ -13510,7 +13510,7 @@
         <v>0</v>
       </c>
       <c r="BO65" s="0">
-        <v>0.7915402061423511</v>
+        <v>0.9922404187548115</v>
       </c>
       <c r="BP65" s="0">
         <v>0</v>
@@ -13719,7 +13719,7 @@
         <v>0.86770777673031407</v>
       </c>
       <c r="BP66" s="0">
-        <v>0.57560378535948709</v>
+        <v>0.62409669713198546</v>
       </c>
     </row>
     <row r="67">
@@ -13853,7 +13853,7 @@
         <v>0</v>
       </c>
       <c r="AR67" s="0">
-        <v>0.73408976179613294</v>
+        <v>0.7442355695570726</v>
       </c>
       <c r="AS67" s="0">
         <v>0</v>
@@ -13919,7 +13919,7 @@
         <v>0.9922404187548115</v>
       </c>
       <c r="BN67" s="0">
-        <v>0.70663210357323325</v>
+        <v>0.86770777673031407</v>
       </c>
       <c r="BO67" s="0">
         <v>0</v>
@@ -14065,7 +14065,7 @@
         <v>0</v>
       </c>
       <c r="AT68" s="0">
-        <v>0.76516010510700461</v>
+        <v>0.94457163427058832</v>
       </c>
       <c r="AU68" s="0">
         <v>0</v>
@@ -14128,7 +14128,7 @@
         <v>0.62409669713198546</v>
       </c>
       <c r="BO68" s="0">
-        <v>0.79709947808113157</v>
+        <v>0.92463525661813195</v>
       </c>
       <c r="BP68" s="0">
         <v>0</v>
